--- a/ATDD Scenarios - Extended Text on Assembly Documents.xlsx
+++ b/ATDD Scenarios - Extended Text on Assembly Documents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2a63c87061b9b9b/Presentations/BC TechDays/2025/Session - Testing is Boring^^. Until Now!/AL/AI TT Research 3 lvanvugt - Extended Text on Assembly Documents/Test/atdd.scenarios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2a63c87061b9b9b/Presentations/BC TechDays/2025/Session - Testing is Boring^^. Until Now!/BCTD2025_TestingIsBoring_UntilNow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{48DDB92B-08C7-45BE-8218-9E0CCE02F660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B52D00C8-4695-4BE1-9488-97BEEAE0F454}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{48DDB92B-08C7-45BE-8218-9E0CCE02F660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C3A7D2-AB4F-47D4-865A-329DBD6EC217}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB99ADC0-1D36-4CB0-890F-ABAEDD9356F9}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId3"/>
+    <pivotCache cacheId="105" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7233,7 +7233,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21059AE0-158F-4B62-8618-46A323C28BCD}" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21059AE0-158F-4B62-8618-46A323C28BCD}" name="PivotTable1" cacheId="105" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -7622,9 +7622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B1ED69-5F96-4A81-993F-0E906F475813}">
   <dimension ref="A1:L411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E42" sqref="E42"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="L2" s="24"/>
     </row>
-    <row r="3" spans="1:12" ht="30.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>Then '"Assembly Quote" is not set on Extended Text card page' }</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>Then '"Blanket Assembly Order" is not set on Extended Text card page' }</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>Then '"Assembly Order" is not set on Extended Text card page' }</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>Then '"Assembly Quote" is not set on Extended Text card page' }</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>Then '"Blanket Assembly Order" is not set on Extended Text card page' }</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>Then '"Assembly Order" is not set on Extended Text card page' }</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>Then '"Assembly Quote" is not set on Extended Text card page' }</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>Then '"Blanket Assembly Order" is not set on Extended Text card page' }</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="30.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" ht="45.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>Then 'No extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>23</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>Then 'Extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>23</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>Then 'No extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>23</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>Then 'Extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>23</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>Then 'No extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>23</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>Then 'No additional extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>23</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>Then 'Item is replaced and extended text lines are removed' } }</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="31.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>23</v>
       </c>
@@ -10073,7 +10073,7 @@
       </c>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>23</v>
       </c>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="L82" s="14"/>
     </row>
-    <row r="83" spans="1:12" ht="45.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>26</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>Then 'No extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>26</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>Then 'Extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>26</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>Then 'No extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>26</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>Then 'Extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>26</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>Then 'No extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>26</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>Then 'No additional extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>26</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>Then 'Item is replaced and extended text lines are removed' } }</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="31.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>26</v>
       </c>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="L119" s="14"/>
     </row>
-    <row r="120" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>26</v>
       </c>
@@ -11599,7 +11599,7 @@
       </c>
       <c r="L125" s="19"/>
     </row>
-    <row r="126" spans="1:12" ht="45.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>95</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>Then 'No extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="40.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="40.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>95</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>Then 'Extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>95</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>Then 'No extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>95</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>Then 'Extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>95</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>Then 'No extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>95</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>Then 'No additional extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>95</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>Then 'Item is replaced and extended text lines are removed' } }</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="31.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
         <v>95</v>
       </c>
@@ -12763,7 +12763,7 @@
       </c>
       <c r="L162" s="19"/>
     </row>
-    <row r="163" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>95</v>
       </c>
@@ -12944,7 +12944,7 @@
       </c>
       <c r="L168" s="29"/>
     </row>
-    <row r="169" spans="1:12" ht="45.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>23</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>Then 'No extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>23</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>Then 'Extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>23</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>Then 'No extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>23</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>Then 'Extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>23</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>Then 'No extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>23</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>Then 'No additional extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>23</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>Then 'Resource is replaced and extended text lines are removed' } }</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="32.25" customHeight="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="32.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A205" s="29" t="s">
         <v>23</v>
       </c>
@@ -14108,7 +14108,7 @@
       </c>
       <c r="L205" s="29"/>
     </row>
-    <row r="206" spans="1:12" ht="30.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>23</v>
       </c>
@@ -14289,7 +14289,7 @@
       </c>
       <c r="L211" s="32"/>
     </row>
-    <row r="212" spans="1:12" ht="45.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>26</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>Then 'No extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="29.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="29.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>26</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>Then 'Extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="29.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="29.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>26</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>Then 'No extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="29.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="29.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>26</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>Then 'Extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="29.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="29.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>26</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>Then 'No extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="29.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="29.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>26</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>Then 'No additional extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="29.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="29.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>26</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>Then 'Resource is replaced and extended text lines are removed' } }</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="32.25" customHeight="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" ht="32.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A248" s="32" t="s">
         <v>26</v>
       </c>
@@ -15453,7 +15453,7 @@
       </c>
       <c r="L248" s="32"/>
     </row>
-    <row r="249" spans="1:12" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>26</v>
       </c>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="L254" s="35"/>
     </row>
-    <row r="255" spans="1:12" ht="45.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>95</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>Then 'No extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="27.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>95</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>Then 'Extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="27.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>95</v>
       </c>
@@ -16120,7 +16120,7 @@
         <v>Then 'No extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" ht="27.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>95</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>Then 'Extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" ht="27.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>95</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>Then 'No extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="27.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>95</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>Then 'No additional extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="27.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>95</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>Then 'Resource is replaced and extended text lines are removed' } }</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="31.5" customHeight="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A291" s="35" t="s">
         <v>95</v>
       </c>
@@ -16798,7 +16798,7 @@
       </c>
       <c r="L291" s="35"/>
     </row>
-    <row r="292" spans="1:12" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>95</v>
       </c>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="L297" s="38"/>
     </row>
-    <row r="298" spans="1:12" ht="30.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>23</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>Then 'Extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>23</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>Then 'No extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>23</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>Then 'Extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>23</v>
       </c>
@@ -17610,7 +17610,7 @@
         <v>Then 'No extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>23</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>Then 'No additional extended text lines are added to assembly order' }</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>23</v>
       </c>
@@ -17957,7 +17957,7 @@
         <v>Then 'Text is replaced and extended text lines are removed' } }</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="31.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A329" s="38" t="s">
         <v>23</v>
       </c>
@@ -17984,7 +17984,7 @@
       </c>
       <c r="L329" s="38"/>
     </row>
-    <row r="330" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>23</v>
       </c>
@@ -18165,7 +18165,7 @@
       </c>
       <c r="L335" s="41"/>
     </row>
-    <row r="336" spans="1:12" ht="30.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>26</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>Then 'Extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>26</v>
       </c>
@@ -18492,7 +18492,7 @@
         <v>Then 'No extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>26</v>
       </c>
@@ -18644,7 +18644,7 @@
         <v>Then 'Extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="351" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>26</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>Then 'No extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>26</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>Then 'No additional extended text lines are added to assembly quote' }</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>26</v>
       </c>
@@ -19143,7 +19143,7 @@
         <v>Then 'Text is replaced and extended text lines are removed' } }</v>
       </c>
     </row>
-    <row r="367" spans="1:12" ht="31.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A367" s="41" t="s">
         <v>26</v>
       </c>
@@ -19170,7 +19170,7 @@
       </c>
       <c r="L367" s="41"/>
     </row>
-    <row r="368" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>26</v>
       </c>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="L373" s="57"/>
     </row>
-    <row r="374" spans="1:12" ht="30.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>95</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>Then 'Extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>95</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>Then 'No extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="384" spans="1:12" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>95</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>Then 'Extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>95</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>Then 'No extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>95</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>Then 'No additional extended text lines are added to blanket assembly order' }</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>95</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>Then 'Text is replaced and extended text lines are removed' } }</v>
       </c>
     </row>
-    <row r="405" spans="1:12" ht="30.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A405" s="53" t="s">
         <v>95</v>
       </c>
@@ -20356,7 +20356,7 @@
       </c>
       <c r="L405" s="57"/>
     </row>
-    <row r="406" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>95</v>
       </c>

--- a/ATDD Scenarios - Extended Text on Assembly Documents.xlsx
+++ b/ATDD Scenarios - Extended Text on Assembly Documents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2a63c87061b9b9b/Presentations/BC TechDays/2025/Session - Testing is Boring^^. Until Now!/BCTD2025_TestingIsBoring_UntilNow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{48DDB92B-08C7-45BE-8218-9E0CCE02F660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C3A7D2-AB4F-47D4-865A-329DBD6EC217}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{48DDB92B-08C7-45BE-8218-9E0CCE02F660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30A255EA-43F9-4E1C-8267-8C1D6F4F908E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB99ADC0-1D36-4CB0-890F-ABAEDD9356F9}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="105" r:id="rId3"/>
+    <pivotCache cacheId="154" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -207,9 +207,6 @@
     <t>Extended text lines are added to assembly order</t>
   </si>
   <si>
-    <t>Add to assembly order line for item with "Automatic Ext. Texts"disabled and extended text enabled</t>
-  </si>
-  <si>
     <t>Add to assembly order line for item with "Automatic Ext. Texts" enabled and extended text enabled</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
   </si>
   <si>
     <t>Item with "Automatic Ext. Texts" enabled and extended text disabled for assembly order</t>
-  </si>
-  <si>
-    <t>Add to assembly quote line for item with "Automatic Ext. Texts"disabled and extended text enabled</t>
   </si>
   <si>
     <t>Add to assembly quote line for item with "Automatic Ext. Texts" enabled and extended text enabled</t>
@@ -330,9 +324,6 @@
     <t>Extended Text on blanket assembly order</t>
   </si>
   <si>
-    <t>Add to blanket assembly order line for item with "Automatic Ext. Texts"disabled and extended text enabled</t>
-  </si>
-  <si>
     <t>blanket assembly order</t>
   </si>
   <si>
@@ -414,9 +405,6 @@
     <t>Resource  and extended text lines are removed</t>
   </si>
   <si>
-    <t>Add to assembly order line for resource with "Automatic Ext. Texts"disabled and extended text enabled</t>
-  </si>
-  <si>
     <t>Add resource line to assembly order page</t>
   </si>
   <si>
@@ -439,9 +427,6 @@
   </si>
   <si>
     <t>Delete resource line from assembly order</t>
-  </si>
-  <si>
-    <t>Add to assembly quote line for resource with "Automatic Ext. Texts"disabled and extended text enabled</t>
   </si>
   <si>
     <t>Resource with "Automatic Ext. Texts" disabled and extended text enabled for assembly quote</t>
@@ -475,9 +460,6 @@
   </si>
   <si>
     <t>Delete resource line from assembly quote</t>
-  </si>
-  <si>
-    <t>Add to blanket assembly order line for resource with "Automatic Ext. Texts"disabled and extended text enabled</t>
   </si>
   <si>
     <t>Resource with "Automatic Ext. Texts" disabled and extended text enabled for blanket assembly order</t>
@@ -658,6 +640,24 @@
   </si>
   <si>
     <t>Standard text with extended text</t>
+  </si>
+  <si>
+    <t>Add to assembly order line for item with "Automatic Ext. Texts" disabled and extended text enabled</t>
+  </si>
+  <si>
+    <t>Add to assembly quote line for item with "Automatic Ext. Texts" disabled and extended text enabled</t>
+  </si>
+  <si>
+    <t>Add to blanket assembly order line for item with "Automatic Ext. Texts" disabled and extended text enabled</t>
+  </si>
+  <si>
+    <t>Add to assembly order line for resource with "Automatic Ext. Texts" disabled and extended text enabled</t>
+  </si>
+  <si>
+    <t>Add to assembly quote line for resource with "Automatic Ext. Texts" disabled and extended text enabled</t>
+  </si>
+  <si>
+    <t>Add to blanket assembly order line for resource with "Automatic Ext. Texts" disabled and extended text enabled</t>
   </si>
 </sst>
 </file>
@@ -7233,7 +7233,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21059AE0-158F-4B62-8618-46A323C28BCD}" name="PivotTable1" cacheId="105" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21059AE0-158F-4B62-8618-46A323C28BCD}" name="PivotTable1" cacheId="154" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -7624,7 +7624,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+      <selection pane="topRight" sqref="A1:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7822,7 +7822,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6" s="4">
         <v>16</v>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F7" s="3"/>
       <c r="H7" s="4">
@@ -7952,7 +7952,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H10" s="4">
         <v>17</v>
@@ -8082,7 +8082,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H14" s="4">
         <v>18</v>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F15" s="3"/>
       <c r="H15" s="4">
@@ -8146,7 +8146,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H16" s="4">
         <v>76</v>
@@ -8212,7 +8212,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H18" s="4">
         <v>76</v>
@@ -8242,7 +8242,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F19" s="3"/>
       <c r="H19" s="4">
@@ -8276,7 +8276,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H20" s="4">
         <v>77</v>
@@ -8342,7 +8342,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H22" s="4">
         <v>77</v>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F23" s="3"/>
       <c r="H23" s="4">
@@ -8406,7 +8406,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H24" s="4">
         <v>78</v>
@@ -8472,7 +8472,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H26" s="4">
         <v>79</v>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="D27" s="8"/>
       <c r="E27" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F27" s="3"/>
       <c r="H27" s="4">
@@ -8536,7 +8536,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H28" s="4">
         <v>78.678321678321694</v>
@@ -8602,7 +8602,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H30" s="4">
         <v>79.125874125874105</v>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F31" s="3"/>
       <c r="H31" s="4">
@@ -8666,7 +8666,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H32" s="4">
         <v>79.573426573426602</v>
@@ -8732,7 +8732,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H34" s="4">
         <v>80.020979020978999</v>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F35" s="3"/>
       <c r="H35" s="4">
@@ -8796,7 +8796,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H36" s="4">
         <v>81</v>
@@ -8862,7 +8862,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H38" s="4">
         <v>80.916083916083906</v>
@@ -8921,22 +8921,22 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
       </c>
       <c r="I40" s="3" t="str">
         <f>IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table2[[#This Row],[Feature]],"/",Table2[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table2[[#This Row],[Scenario '#]],"0000"),"] ",Table2[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table2[[#This Row],[Given-When-Then (Tag)]]),"] ",Table2[[#This Row],[Given-When-Then (Description)]]))</f>
-        <v>[SCENARIO #0001] Add to assembly order line for item with "Automatic Ext. Texts"disabled and extended text enabled</v>
+        <v>[SCENARIO #0001] Add to assembly order line for item with "Automatic Ext. Texts" disabled and extended text enabled</v>
       </c>
       <c r="J40" s="5" t="str">
         <f>_xlfn.CONCAT("//",Table2[[#This Row],[ATDD Format]])</f>
-        <v>//[SCENARIO #0001] Add to assembly order line for item with "Automatic Ext. Texts"disabled and extended text enabled</v>
+        <v>//[SCENARIO #0001] Add to assembly order line for item with "Automatic Ext. Texts" disabled and extended text enabled</v>
       </c>
       <c r="K40" s="60" t="str">
         <f ca="1">IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",IF(Table2[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table2[[#This Row],[Feature]],IF(Table2[[#This Row],[Sub Feature]]&lt;&gt;"",_xlfn.CONCAT("/",Table2[[#This Row],[Sub Feature]],"' {")," {")),""),_xlfn.CONCAT("Scenario ",TEXT(Table2[[#This Row],[Scenario '#]],"0000")," '",Table2[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
-        <v>Scenario 0001 'Add to assembly order line for item with "Automatic Ext. Texts"disabled and extended text enabled' {</v>
+        <v>Scenario 0001 'Add to assembly order line for item with "Automatic Ext. Texts" disabled and extended text enabled' {</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8954,7 +8954,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H41" s="4">
         <v>1</v>
@@ -9020,7 +9020,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H43" s="4">
         <v>1</v>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H45" s="4">
         <v>2</v>
@@ -9116,7 +9116,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H46" s="4">
         <v>2</v>
@@ -9182,7 +9182,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H48" s="4">
         <v>2</v>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H50" s="4">
         <v>67</v>
@@ -9278,7 +9278,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="4">
         <v>67</v>
@@ -9344,7 +9344,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H53" s="4">
         <v>67</v>
@@ -9436,7 +9436,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H56" s="4">
         <v>3</v>
@@ -9467,7 +9467,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H57" s="4">
         <v>3</v>
@@ -9498,7 +9498,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H58" s="4">
         <v>3</v>
@@ -9588,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H61" s="4">
         <v>4</v>
@@ -9619,7 +9619,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H62" s="4">
         <v>4</v>
@@ -9650,7 +9650,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H63" s="4">
         <v>4</v>
@@ -9709,7 +9709,7 @@
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H65" s="4">
         <v>19</v>
@@ -9740,7 +9740,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H66" s="4">
         <v>19</v>
@@ -9771,7 +9771,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H67" s="4">
         <v>19</v>
@@ -9802,7 +9802,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H68" s="4">
         <v>19</v>
@@ -9833,7 +9833,7 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H69" s="4">
         <v>19</v>
@@ -9896,7 +9896,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H71" s="4">
         <v>20</v>
@@ -9929,7 +9929,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H72" s="4">
         <v>20</v>
@@ -9962,7 +9962,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H73" s="4">
         <v>20</v>
@@ -9995,7 +9995,7 @@
         <v>11</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H74" s="4">
         <v>20</v>
@@ -10028,7 +10028,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H75" s="4">
         <v>20</v>
@@ -10114,7 +10114,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H78" s="4">
         <v>5</v>
@@ -10145,7 +10145,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H79" s="4">
         <v>5</v>
@@ -10176,7 +10176,7 @@
         <v>11</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H80" s="4">
         <v>5</v>
@@ -10207,7 +10207,7 @@
         <v>12</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H81" s="4">
         <v>5</v>
@@ -10266,22 +10266,22 @@
       </c>
       <c r="D83" s="8"/>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="H83" s="4">
         <v>6</v>
       </c>
       <c r="I83" s="3" t="str">
         <f>IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table2[[#This Row],[Feature]],"/",Table2[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table2[[#This Row],[Scenario '#]],"0000"),"] ",Table2[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table2[[#This Row],[Given-When-Then (Tag)]]),"] ",Table2[[#This Row],[Given-When-Then (Description)]]))</f>
-        <v>[SCENARIO #0006] Add to assembly quote line for item with "Automatic Ext. Texts"disabled and extended text enabled</v>
+        <v>[SCENARIO #0006] Add to assembly quote line for item with "Automatic Ext. Texts" disabled and extended text enabled</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>_xlfn.CONCAT("//",Table2[[#This Row],[ATDD Format]])</f>
-        <v>//[SCENARIO #0006] Add to assembly quote line for item with "Automatic Ext. Texts"disabled and extended text enabled</v>
+        <v>//[SCENARIO #0006] Add to assembly quote line for item with "Automatic Ext. Texts" disabled and extended text enabled</v>
       </c>
       <c r="K83" s="60" t="str">
         <f ca="1">IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",IF(Table2[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table2[[#This Row],[Feature]],IF(Table2[[#This Row],[Sub Feature]]&lt;&gt;"",_xlfn.CONCAT("/",Table2[[#This Row],[Sub Feature]],"' {")," {")),""),_xlfn.CONCAT("Scenario ",TEXT(Table2[[#This Row],[Scenario '#]],"0000")," '",Table2[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
-        <v>Scenario 0006 'Add to assembly quote line for item with "Automatic Ext. Texts"disabled and extended text enabled' {</v>
+        <v>Scenario 0006 'Add to assembly quote line for item with "Automatic Ext. Texts" disabled and extended text enabled' {</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10299,7 +10299,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H84" s="4">
         <v>6</v>
@@ -10332,7 +10332,7 @@
         <v>10</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H85" s="4">
         <v>6</v>
@@ -10365,7 +10365,7 @@
         <v>11</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H86" s="4">
         <v>6</v>
@@ -10398,7 +10398,7 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H87" s="4">
         <v>6</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="D88" s="8"/>
       <c r="E88" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H88" s="4">
         <v>7</v>
@@ -10461,7 +10461,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H89" s="4">
         <v>7</v>
@@ -10494,7 +10494,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H90" s="4">
         <v>7</v>
@@ -10527,7 +10527,7 @@
         <v>11</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H91" s="4">
         <v>7</v>
@@ -10560,7 +10560,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H92" s="4">
         <v>7</v>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H93" s="4">
         <v>68</v>
@@ -10623,7 +10623,7 @@
         <v>10</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H94" s="4">
         <v>68</v>
@@ -10656,7 +10656,7 @@
         <v>10</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H95" s="4">
         <v>68</v>
@@ -10689,7 +10689,7 @@
         <v>11</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H96" s="4">
         <v>68</v>
@@ -10722,7 +10722,7 @@
         <v>12</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H97" s="4">
         <v>68</v>
@@ -10781,7 +10781,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H99" s="4">
         <v>8</v>
@@ -10812,7 +10812,7 @@
         <v>10</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H100" s="4">
         <v>8</v>
@@ -10843,7 +10843,7 @@
         <v>11</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H101" s="4">
         <v>8</v>
@@ -10874,7 +10874,7 @@
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H102" s="4">
         <v>8</v>
@@ -10933,7 +10933,7 @@
         <v>10</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H104" s="4">
         <v>9</v>
@@ -10964,7 +10964,7 @@
         <v>10</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H105" s="4">
         <v>9</v>
@@ -10995,7 +10995,7 @@
         <v>11</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H106" s="4">
         <v>9</v>
@@ -11026,7 +11026,7 @@
         <v>12</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H107" s="4">
         <v>9</v>
@@ -11054,7 +11054,7 @@
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H108" s="4">
         <v>21</v>
@@ -11085,7 +11085,7 @@
         <v>10</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H109" s="4">
         <v>21</v>
@@ -11116,7 +11116,7 @@
         <v>10</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H110" s="4">
         <v>21</v>
@@ -11147,7 +11147,7 @@
         <v>11</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H111" s="4">
         <v>21</v>
@@ -11178,7 +11178,7 @@
         <v>12</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H112" s="4">
         <v>21</v>
@@ -11241,7 +11241,7 @@
         <v>10</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H114" s="4">
         <v>22</v>
@@ -11274,7 +11274,7 @@
         <v>10</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H115" s="4">
         <v>22</v>
@@ -11307,7 +11307,7 @@
         <v>10</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H116" s="4">
         <v>22</v>
@@ -11340,7 +11340,7 @@
         <v>11</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H117" s="4">
         <v>22</v>
@@ -11373,7 +11373,7 @@
         <v>12</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H118" s="4">
         <v>22</v>
@@ -11459,7 +11459,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H121" s="4">
         <v>10</v>
@@ -11490,7 +11490,7 @@
         <v>10</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H122" s="4">
         <v>10</v>
@@ -11521,7 +11521,7 @@
         <v>11</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H123" s="4">
         <v>10</v>
@@ -11552,7 +11552,7 @@
         <v>12</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H124" s="4">
         <v>10</v>
@@ -11572,7 +11572,7 @@
     </row>
     <row r="125" spans="1:12" ht="31.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>24</v>
@@ -11601,7 +11601,7 @@
     </row>
     <row r="126" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>24</v>
@@ -11611,27 +11611,27 @@
       </c>
       <c r="D126" s="8"/>
       <c r="E126" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="H126" s="4">
         <v>11</v>
       </c>
       <c r="I126" s="3" t="str">
         <f>IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table2[[#This Row],[Feature]],"/",Table2[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table2[[#This Row],[Scenario '#]],"0000"),"] ",Table2[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table2[[#This Row],[Given-When-Then (Tag)]]),"] ",Table2[[#This Row],[Given-When-Then (Description)]]))</f>
-        <v>[SCENARIO #0011] Add to blanket assembly order line for item with "Automatic Ext. Texts"disabled and extended text enabled</v>
+        <v>[SCENARIO #0011] Add to blanket assembly order line for item with "Automatic Ext. Texts" disabled and extended text enabled</v>
       </c>
       <c r="J126" s="5" t="str">
         <f>_xlfn.CONCAT("//",Table2[[#This Row],[ATDD Format]])</f>
-        <v>//[SCENARIO #0011] Add to blanket assembly order line for item with "Automatic Ext. Texts"disabled and extended text enabled</v>
+        <v>//[SCENARIO #0011] Add to blanket assembly order line for item with "Automatic Ext. Texts" disabled and extended text enabled</v>
       </c>
       <c r="K126" s="60" t="str">
         <f ca="1">IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",IF(Table2[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table2[[#This Row],[Feature]],IF(Table2[[#This Row],[Sub Feature]]&lt;&gt;"",_xlfn.CONCAT("/",Table2[[#This Row],[Sub Feature]],"' {")," {")),""),_xlfn.CONCAT("Scenario ",TEXT(Table2[[#This Row],[Scenario '#]],"0000")," '",Table2[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
-        <v>Scenario 0011 'Add to blanket assembly order line for item with "Automatic Ext. Texts"disabled and extended text enabled' {</v>
+        <v>Scenario 0011 'Add to blanket assembly order line for item with "Automatic Ext. Texts" disabled and extended text enabled' {</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="43.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>24</v>
@@ -11644,7 +11644,7 @@
         <v>10</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H127" s="4">
         <v>11</v>
@@ -11677,7 +11677,7 @@
         <v>10</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H128" s="4">
         <v>11</v>
@@ -11697,7 +11697,7 @@
     </row>
     <row r="129" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>24</v>
@@ -11710,7 +11710,7 @@
         <v>11</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H129" s="4">
         <v>11</v>
@@ -11730,7 +11730,7 @@
     </row>
     <row r="130" spans="1:11" ht="40.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>24</v>
@@ -11743,7 +11743,7 @@
         <v>12</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H130" s="4">
         <v>11</v>
@@ -11763,7 +11763,7 @@
     </row>
     <row r="131" spans="1:11" ht="40.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>24</v>
@@ -11773,7 +11773,7 @@
       </c>
       <c r="D131" s="8"/>
       <c r="E131" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H131" s="4">
         <v>12</v>
@@ -11793,7 +11793,7 @@
     </row>
     <row r="132" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>24</v>
@@ -11806,7 +11806,7 @@
         <v>10</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H132" s="4">
         <v>12</v>
@@ -11826,7 +11826,7 @@
     </row>
     <row r="133" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>24</v>
@@ -11839,7 +11839,7 @@
         <v>10</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H133" s="4">
         <v>12</v>
@@ -11859,7 +11859,7 @@
     </row>
     <row r="134" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>24</v>
@@ -11872,7 +11872,7 @@
         <v>11</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H134" s="4">
         <v>12</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="135" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>24</v>
@@ -11905,7 +11905,7 @@
         <v>12</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H135" s="4">
         <v>12</v>
@@ -11925,7 +11925,7 @@
     </row>
     <row r="136" spans="1:11" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>24</v>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="D136" s="8"/>
       <c r="E136" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H136" s="4">
         <v>69</v>
@@ -11955,7 +11955,7 @@
     </row>
     <row r="137" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>24</v>
@@ -11968,7 +11968,7 @@
         <v>10</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H137" s="4">
         <v>69</v>
@@ -11988,7 +11988,7 @@
     </row>
     <row r="138" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>24</v>
@@ -12001,7 +12001,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H138" s="4">
         <v>69</v>
@@ -12021,7 +12021,7 @@
     </row>
     <row r="139" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>24</v>
@@ -12034,7 +12034,7 @@
         <v>11</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H139" s="4">
         <v>69</v>
@@ -12054,7 +12054,7 @@
     </row>
     <row r="140" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>24</v>
@@ -12067,7 +12067,7 @@
         <v>12</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H140" s="4">
         <v>69</v>
@@ -12087,7 +12087,7 @@
     </row>
     <row r="141" spans="1:11" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>24</v>
@@ -12095,7 +12095,7 @@
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H141" s="4">
         <v>13</v>
@@ -12115,7 +12115,7 @@
     </row>
     <row r="142" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>24</v>
@@ -12126,7 +12126,7 @@
         <v>10</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H142" s="4">
         <v>13</v>
@@ -12146,7 +12146,7 @@
     </row>
     <row r="143" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>24</v>
@@ -12157,7 +12157,7 @@
         <v>10</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H143" s="4">
         <v>13</v>
@@ -12177,7 +12177,7 @@
     </row>
     <row r="144" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>24</v>
@@ -12188,7 +12188,7 @@
         <v>11</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H144" s="4">
         <v>13</v>
@@ -12208,7 +12208,7 @@
     </row>
     <row r="145" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>24</v>
@@ -12219,7 +12219,7 @@
         <v>12</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H145" s="4">
         <v>13</v>
@@ -12239,7 +12239,7 @@
     </row>
     <row r="146" spans="1:11" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>24</v>
@@ -12247,7 +12247,7 @@
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H146" s="4">
         <v>14</v>
@@ -12267,7 +12267,7 @@
     </row>
     <row r="147" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>24</v>
@@ -12278,7 +12278,7 @@
         <v>10</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H147" s="4">
         <v>14</v>
@@ -12298,7 +12298,7 @@
     </row>
     <row r="148" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>24</v>
@@ -12309,7 +12309,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H148" s="4">
         <v>14</v>
@@ -12329,7 +12329,7 @@
     </row>
     <row r="149" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>24</v>
@@ -12340,7 +12340,7 @@
         <v>11</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H149" s="4">
         <v>14</v>
@@ -12360,7 +12360,7 @@
     </row>
     <row r="150" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>24</v>
@@ -12371,7 +12371,7 @@
         <v>12</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H150" s="4">
         <v>14</v>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="151" spans="1:11" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>24</v>
@@ -12399,7 +12399,7 @@
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H151" s="4">
         <v>23</v>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="152" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>24</v>
@@ -12430,7 +12430,7 @@
         <v>10</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H152" s="4">
         <v>23</v>
@@ -12450,7 +12450,7 @@
     </row>
     <row r="153" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>24</v>
@@ -12461,7 +12461,7 @@
         <v>10</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H153" s="4">
         <v>23</v>
@@ -12481,7 +12481,7 @@
     </row>
     <row r="154" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>24</v>
@@ -12492,7 +12492,7 @@
         <v>11</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H154" s="4">
         <v>23</v>
@@ -12512,7 +12512,7 @@
     </row>
     <row r="155" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>24</v>
@@ -12523,7 +12523,7 @@
         <v>12</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H155" s="4">
         <v>23</v>
@@ -12543,7 +12543,7 @@
     </row>
     <row r="156" spans="1:11" ht="30" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>24</v>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="D156" s="8"/>
       <c r="E156" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H156" s="4">
         <v>24</v>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="157" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>24</v>
@@ -12586,7 +12586,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H157" s="4">
         <v>24</v>
@@ -12606,7 +12606,7 @@
     </row>
     <row r="158" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>24</v>
@@ -12619,7 +12619,7 @@
         <v>10</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H158" s="4">
         <v>24</v>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="159" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>24</v>
@@ -12652,7 +12652,7 @@
         <v>10</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H159" s="4">
         <v>24</v>
@@ -12672,7 +12672,7 @@
     </row>
     <row r="160" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>24</v>
@@ -12685,7 +12685,7 @@
         <v>11</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H160" s="4">
         <v>24</v>
@@ -12705,7 +12705,7 @@
     </row>
     <row r="161" spans="1:12" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>24</v>
@@ -12718,7 +12718,7 @@
         <v>12</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H161" s="4">
         <v>24</v>
@@ -12738,7 +12738,7 @@
     </row>
     <row r="162" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>25</v>
@@ -12765,7 +12765,7 @@
     </row>
     <row r="163" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>25</v>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="164" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>25</v>
@@ -12804,7 +12804,7 @@
         <v>10</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H164" s="4">
         <v>15</v>
@@ -12824,7 +12824,7 @@
     </row>
     <row r="165" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>25</v>
@@ -12835,7 +12835,7 @@
         <v>10</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H165" s="4">
         <v>15</v>
@@ -12855,7 +12855,7 @@
     </row>
     <row r="166" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>25</v>
@@ -12866,7 +12866,7 @@
         <v>11</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H166" s="4">
         <v>15</v>
@@ -12886,7 +12886,7 @@
     </row>
     <row r="167" spans="1:12" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>25</v>
@@ -12897,7 +12897,7 @@
         <v>12</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H167" s="4">
         <v>15</v>
@@ -12956,22 +12956,22 @@
       </c>
       <c r="D169" s="8"/>
       <c r="E169" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H169" s="4">
         <v>25</v>
       </c>
       <c r="I169" s="3" t="str">
         <f>IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table2[[#This Row],[Feature]],"/",Table2[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table2[[#This Row],[Scenario '#]],"0000"),"] ",Table2[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table2[[#This Row],[Given-When-Then (Tag)]]),"] ",Table2[[#This Row],[Given-When-Then (Description)]]))</f>
-        <v>[SCENARIO #0025] Add to assembly order line for resource with "Automatic Ext. Texts"disabled and extended text enabled</v>
+        <v>[SCENARIO #0025] Add to assembly order line for resource with "Automatic Ext. Texts" disabled and extended text enabled</v>
       </c>
       <c r="J169" s="5" t="str">
         <f>_xlfn.CONCAT("//",Table2[[#This Row],[ATDD Format]])</f>
-        <v>//[SCENARIO #0025] Add to assembly order line for resource with "Automatic Ext. Texts"disabled and extended text enabled</v>
+        <v>//[SCENARIO #0025] Add to assembly order line for resource with "Automatic Ext. Texts" disabled and extended text enabled</v>
       </c>
       <c r="K169" s="60" t="str">
         <f ca="1">IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",IF(Table2[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table2[[#This Row],[Feature]],IF(Table2[[#This Row],[Sub Feature]]&lt;&gt;"",_xlfn.CONCAT("/",Table2[[#This Row],[Sub Feature]],"' {")," {")),""),_xlfn.CONCAT("Scenario ",TEXT(Table2[[#This Row],[Scenario '#]],"0000")," '",Table2[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
-        <v>Scenario 0025 'Add to assembly order line for resource with "Automatic Ext. Texts"disabled and extended text enabled' {</v>
+        <v>Scenario 0025 'Add to assembly order line for resource with "Automatic Ext. Texts" disabled and extended text enabled' {</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="30.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -12989,7 +12989,7 @@
         <v>10</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H170" s="4">
         <v>25</v>
@@ -13055,7 +13055,7 @@
         <v>11</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H172" s="4">
         <v>25</v>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="D174" s="8"/>
       <c r="E174" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H174" s="4">
         <v>26</v>
@@ -13151,7 +13151,7 @@
         <v>10</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H175" s="4">
         <v>26</v>
@@ -13217,7 +13217,7 @@
         <v>11</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H177" s="4">
         <v>26</v>
@@ -13280,7 +13280,7 @@
       </c>
       <c r="D179" s="8"/>
       <c r="E179" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H179" s="4">
         <v>70</v>
@@ -13313,7 +13313,7 @@
         <v>10</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H180" s="4">
         <v>70</v>
@@ -13379,7 +13379,7 @@
         <v>11</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H182" s="4">
         <v>70</v>
@@ -13471,7 +13471,7 @@
         <v>10</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H185" s="4">
         <v>27</v>
@@ -13502,7 +13502,7 @@
         <v>10</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H186" s="4">
         <v>27</v>
@@ -13533,7 +13533,7 @@
         <v>11</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H187" s="4">
         <v>27</v>
@@ -13623,7 +13623,7 @@
         <v>10</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H190" s="4">
         <v>28</v>
@@ -13654,7 +13654,7 @@
         <v>10</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H191" s="4">
         <v>28</v>
@@ -13685,7 +13685,7 @@
         <v>11</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H192" s="4">
         <v>28</v>
@@ -13744,7 +13744,7 @@
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H194" s="4">
         <v>29</v>
@@ -13775,7 +13775,7 @@
         <v>10</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H195" s="4">
         <v>29</v>
@@ -13806,7 +13806,7 @@
         <v>10</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H196" s="4">
         <v>29</v>
@@ -13837,7 +13837,7 @@
         <v>11</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H197" s="4">
         <v>29</v>
@@ -13868,7 +13868,7 @@
         <v>12</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H198" s="4">
         <v>29</v>
@@ -13931,7 +13931,7 @@
         <v>10</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H200" s="4">
         <v>30</v>
@@ -13964,7 +13964,7 @@
         <v>10</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H201" s="4">
         <v>30</v>
@@ -13997,7 +13997,7 @@
         <v>10</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H202" s="4">
         <v>30</v>
@@ -14030,7 +14030,7 @@
         <v>11</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H203" s="4">
         <v>30</v>
@@ -14063,7 +14063,7 @@
         <v>12</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H204" s="4">
         <v>30</v>
@@ -14149,7 +14149,7 @@
         <v>10</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H207" s="4">
         <v>31</v>
@@ -14180,7 +14180,7 @@
         <v>10</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H208" s="4">
         <v>31</v>
@@ -14211,7 +14211,7 @@
         <v>11</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H209" s="4">
         <v>31</v>
@@ -14242,7 +14242,7 @@
         <v>12</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H210" s="4">
         <v>31</v>
@@ -14301,22 +14301,22 @@
       </c>
       <c r="D212" s="8"/>
       <c r="E212" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="H212" s="4">
         <v>32</v>
       </c>
       <c r="I212" s="3" t="str">
         <f>IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table2[[#This Row],[Feature]],"/",Table2[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table2[[#This Row],[Scenario '#]],"0000"),"] ",Table2[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table2[[#This Row],[Given-When-Then (Tag)]]),"] ",Table2[[#This Row],[Given-When-Then (Description)]]))</f>
-        <v>[SCENARIO #0032] Add to assembly quote line for resource with "Automatic Ext. Texts"disabled and extended text enabled</v>
+        <v>[SCENARIO #0032] Add to assembly quote line for resource with "Automatic Ext. Texts" disabled and extended text enabled</v>
       </c>
       <c r="J212" s="5" t="str">
         <f>_xlfn.CONCAT("//",Table2[[#This Row],[ATDD Format]])</f>
-        <v>//[SCENARIO #0032] Add to assembly quote line for resource with "Automatic Ext. Texts"disabled and extended text enabled</v>
+        <v>//[SCENARIO #0032] Add to assembly quote line for resource with "Automatic Ext. Texts" disabled and extended text enabled</v>
       </c>
       <c r="K212" s="60" t="str">
         <f ca="1">IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",IF(Table2[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table2[[#This Row],[Feature]],IF(Table2[[#This Row],[Sub Feature]]&lt;&gt;"",_xlfn.CONCAT("/",Table2[[#This Row],[Sub Feature]],"' {")," {")),""),_xlfn.CONCAT("Scenario ",TEXT(Table2[[#This Row],[Scenario '#]],"0000")," '",Table2[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
-        <v>Scenario 0032 'Add to assembly quote line for resource with "Automatic Ext. Texts"disabled and extended text enabled' {</v>
+        <v>Scenario 0032 'Add to assembly quote line for resource with "Automatic Ext. Texts" disabled and extended text enabled' {</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -14334,7 +14334,7 @@
         <v>10</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H213" s="4">
         <v>32</v>
@@ -14367,7 +14367,7 @@
         <v>10</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H214" s="4">
         <v>32</v>
@@ -14400,7 +14400,7 @@
         <v>11</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H215" s="4">
         <v>32</v>
@@ -14433,7 +14433,7 @@
         <v>12</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H216" s="4">
         <v>32</v>
@@ -14463,7 +14463,7 @@
       </c>
       <c r="D217" s="8"/>
       <c r="E217" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H217" s="4">
         <v>33</v>
@@ -14496,7 +14496,7 @@
         <v>10</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H218" s="4">
         <v>33</v>
@@ -14529,7 +14529,7 @@
         <v>10</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H219" s="4">
         <v>33</v>
@@ -14562,7 +14562,7 @@
         <v>11</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H220" s="4">
         <v>33</v>
@@ -14595,7 +14595,7 @@
         <v>12</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H221" s="4">
         <v>33</v>
@@ -14625,7 +14625,7 @@
       </c>
       <c r="D222" s="8"/>
       <c r="E222" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H222" s="4">
         <v>71</v>
@@ -14658,7 +14658,7 @@
         <v>10</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H223" s="4">
         <v>71</v>
@@ -14691,7 +14691,7 @@
         <v>10</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H224" s="4">
         <v>71</v>
@@ -14724,7 +14724,7 @@
         <v>11</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H225" s="4">
         <v>71</v>
@@ -14757,7 +14757,7 @@
         <v>12</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H226" s="4">
         <v>71</v>
@@ -14816,7 +14816,7 @@
         <v>10</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H228" s="4">
         <v>34</v>
@@ -14847,7 +14847,7 @@
         <v>10</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H229" s="4">
         <v>34</v>
@@ -14878,7 +14878,7 @@
         <v>11</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H230" s="4">
         <v>34</v>
@@ -14909,7 +14909,7 @@
         <v>12</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H231" s="4">
         <v>34</v>
@@ -14968,7 +14968,7 @@
         <v>10</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H233" s="4">
         <v>35</v>
@@ -14999,7 +14999,7 @@
         <v>10</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H234" s="4">
         <v>35</v>
@@ -15030,7 +15030,7 @@
         <v>11</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H235" s="4">
         <v>35</v>
@@ -15061,7 +15061,7 @@
         <v>12</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H236" s="4">
         <v>35</v>
@@ -15089,7 +15089,7 @@
       <c r="C237" s="8"/>
       <c r="D237" s="8"/>
       <c r="E237" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H237" s="4">
         <v>36</v>
@@ -15120,7 +15120,7 @@
         <v>10</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H238" s="4">
         <v>36</v>
@@ -15151,7 +15151,7 @@
         <v>10</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H239" s="4">
         <v>36</v>
@@ -15182,7 +15182,7 @@
         <v>11</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H240" s="4">
         <v>36</v>
@@ -15213,7 +15213,7 @@
         <v>12</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H241" s="4">
         <v>36</v>
@@ -15276,7 +15276,7 @@
         <v>10</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H243" s="4">
         <v>37</v>
@@ -15309,7 +15309,7 @@
         <v>10</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H244" s="4">
         <v>37</v>
@@ -15342,7 +15342,7 @@
         <v>10</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H245" s="4">
         <v>37</v>
@@ -15375,7 +15375,7 @@
         <v>11</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H246" s="4">
         <v>37</v>
@@ -15408,7 +15408,7 @@
         <v>12</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H247" s="4">
         <v>37</v>
@@ -15494,7 +15494,7 @@
         <v>10</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H250" s="4">
         <v>38</v>
@@ -15525,7 +15525,7 @@
         <v>10</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H251" s="4">
         <v>38</v>
@@ -15556,7 +15556,7 @@
         <v>11</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H252" s="4">
         <v>38</v>
@@ -15587,7 +15587,7 @@
         <v>12</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H253" s="4">
         <v>38</v>
@@ -15607,7 +15607,7 @@
     </row>
     <row r="254" spans="1:12" ht="31.5" customHeight="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B254" s="35" t="s">
         <v>28</v>
@@ -15636,7 +15636,7 @@
     </row>
     <row r="255" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>28</v>
@@ -15646,27 +15646,27 @@
       </c>
       <c r="D255" s="8"/>
       <c r="E255" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="H255" s="4">
         <v>39</v>
       </c>
       <c r="I255" s="3" t="str">
         <f>IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table2[[#This Row],[Feature]],"/",Table2[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table2[[#This Row],[Scenario '#]],"0000"),"] ",Table2[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table2[[#This Row],[Given-When-Then (Tag)]]),"] ",Table2[[#This Row],[Given-When-Then (Description)]]))</f>
-        <v>[SCENARIO #0039] Add to blanket assembly order line for resource with "Automatic Ext. Texts"disabled and extended text enabled</v>
+        <v>[SCENARIO #0039] Add to blanket assembly order line for resource with "Automatic Ext. Texts" disabled and extended text enabled</v>
       </c>
       <c r="J255" s="5" t="str">
         <f>_xlfn.CONCAT("//",Table2[[#This Row],[ATDD Format]])</f>
-        <v>//[SCENARIO #0039] Add to blanket assembly order line for resource with "Automatic Ext. Texts"disabled and extended text enabled</v>
+        <v>//[SCENARIO #0039] Add to blanket assembly order line for resource with "Automatic Ext. Texts" disabled and extended text enabled</v>
       </c>
       <c r="K255" s="60" t="str">
         <f ca="1">IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",IF(Table2[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table2[[#This Row],[Feature]],IF(Table2[[#This Row],[Sub Feature]]&lt;&gt;"",_xlfn.CONCAT("/",Table2[[#This Row],[Sub Feature]],"' {")," {")),""),_xlfn.CONCAT("Scenario ",TEXT(Table2[[#This Row],[Scenario '#]],"0000")," '",Table2[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
-        <v>Scenario 0039 'Add to blanket assembly order line for resource with "Automatic Ext. Texts"disabled and extended text enabled' {</v>
+        <v>Scenario 0039 'Add to blanket assembly order line for resource with "Automatic Ext. Texts" disabled and extended text enabled' {</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>28</v>
@@ -15679,7 +15679,7 @@
         <v>10</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H256" s="4">
         <v>39</v>
@@ -15699,7 +15699,7 @@
     </row>
     <row r="257" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>28</v>
@@ -15712,7 +15712,7 @@
         <v>10</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H257" s="4">
         <v>39</v>
@@ -15732,7 +15732,7 @@
     </row>
     <row r="258" spans="1:11" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>28</v>
@@ -15745,7 +15745,7 @@
         <v>11</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H258" s="4">
         <v>39</v>
@@ -15765,7 +15765,7 @@
     </row>
     <row r="259" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>28</v>
@@ -15778,7 +15778,7 @@
         <v>12</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H259" s="4">
         <v>39</v>
@@ -15798,7 +15798,7 @@
     </row>
     <row r="260" spans="1:11" ht="27.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>28</v>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="D260" s="8"/>
       <c r="E260" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H260" s="4">
         <v>40</v>
@@ -15828,7 +15828,7 @@
     </row>
     <row r="261" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>28</v>
@@ -15841,7 +15841,7 @@
         <v>10</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H261" s="4">
         <v>40</v>
@@ -15861,7 +15861,7 @@
     </row>
     <row r="262" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>28</v>
@@ -15874,7 +15874,7 @@
         <v>10</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H262" s="4">
         <v>40</v>
@@ -15894,7 +15894,7 @@
     </row>
     <row r="263" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>28</v>
@@ -15907,7 +15907,7 @@
         <v>11</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H263" s="4">
         <v>40</v>
@@ -15927,7 +15927,7 @@
     </row>
     <row r="264" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>28</v>
@@ -15940,7 +15940,7 @@
         <v>12</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H264" s="4">
         <v>40</v>
@@ -15960,7 +15960,7 @@
     </row>
     <row r="265" spans="1:11" ht="27.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>28</v>
@@ -15970,7 +15970,7 @@
       </c>
       <c r="D265" s="8"/>
       <c r="E265" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H265" s="4">
         <v>72</v>
@@ -15990,7 +15990,7 @@
     </row>
     <row r="266" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>28</v>
@@ -16003,7 +16003,7 @@
         <v>10</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H266" s="4">
         <v>72</v>
@@ -16023,7 +16023,7 @@
     </row>
     <row r="267" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>28</v>
@@ -16036,7 +16036,7 @@
         <v>10</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H267" s="4">
         <v>72</v>
@@ -16056,7 +16056,7 @@
     </row>
     <row r="268" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>28</v>
@@ -16069,7 +16069,7 @@
         <v>11</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H268" s="4">
         <v>72</v>
@@ -16089,7 +16089,7 @@
     </row>
     <row r="269" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>28</v>
@@ -16102,7 +16102,7 @@
         <v>12</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H269" s="4">
         <v>72</v>
@@ -16122,7 +16122,7 @@
     </row>
     <row r="270" spans="1:11" ht="27.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>28</v>
@@ -16130,7 +16130,7 @@
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
       <c r="E270" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H270" s="4">
         <v>41</v>
@@ -16150,7 +16150,7 @@
     </row>
     <row r="271" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>28</v>
@@ -16161,7 +16161,7 @@
         <v>10</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H271" s="4">
         <v>41</v>
@@ -16181,7 +16181,7 @@
     </row>
     <row r="272" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>28</v>
@@ -16192,7 +16192,7 @@
         <v>10</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H272" s="4">
         <v>41</v>
@@ -16212,7 +16212,7 @@
     </row>
     <row r="273" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>28</v>
@@ -16223,7 +16223,7 @@
         <v>11</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H273" s="4">
         <v>41</v>
@@ -16243,7 +16243,7 @@
     </row>
     <row r="274" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>28</v>
@@ -16254,7 +16254,7 @@
         <v>12</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H274" s="4">
         <v>41</v>
@@ -16274,7 +16274,7 @@
     </row>
     <row r="275" spans="1:11" ht="27.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>28</v>
@@ -16282,7 +16282,7 @@
       <c r="C275" s="8"/>
       <c r="D275" s="8"/>
       <c r="E275" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H275" s="4">
         <v>42</v>
@@ -16302,7 +16302,7 @@
     </row>
     <row r="276" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>28</v>
@@ -16313,7 +16313,7 @@
         <v>10</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H276" s="4">
         <v>42</v>
@@ -16333,7 +16333,7 @@
     </row>
     <row r="277" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>28</v>
@@ -16344,7 +16344,7 @@
         <v>10</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H277" s="4">
         <v>42</v>
@@ -16364,7 +16364,7 @@
     </row>
     <row r="278" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>28</v>
@@ -16375,7 +16375,7 @@
         <v>11</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H278" s="4">
         <v>42</v>
@@ -16395,7 +16395,7 @@
     </row>
     <row r="279" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>28</v>
@@ -16406,7 +16406,7 @@
         <v>12</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H279" s="4">
         <v>42</v>
@@ -16426,7 +16426,7 @@
     </row>
     <row r="280" spans="1:11" ht="27.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>28</v>
@@ -16434,7 +16434,7 @@
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
       <c r="E280" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H280" s="4">
         <v>43</v>
@@ -16454,7 +16454,7 @@
     </row>
     <row r="281" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>28</v>
@@ -16465,7 +16465,7 @@
         <v>10</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H281" s="4">
         <v>43</v>
@@ -16485,7 +16485,7 @@
     </row>
     <row r="282" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>28</v>
@@ -16496,7 +16496,7 @@
         <v>10</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H282" s="4">
         <v>43</v>
@@ -16516,7 +16516,7 @@
     </row>
     <row r="283" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>28</v>
@@ -16527,7 +16527,7 @@
         <v>11</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H283" s="4">
         <v>43</v>
@@ -16547,7 +16547,7 @@
     </row>
     <row r="284" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>28</v>
@@ -16558,7 +16558,7 @@
         <v>12</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H284" s="4">
         <v>43</v>
@@ -16578,7 +16578,7 @@
     </row>
     <row r="285" spans="1:11" ht="27.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>28</v>
@@ -16588,7 +16588,7 @@
       </c>
       <c r="D285" s="8"/>
       <c r="E285" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H285" s="4">
         <v>44</v>
@@ -16608,7 +16608,7 @@
     </row>
     <row r="286" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>28</v>
@@ -16621,7 +16621,7 @@
         <v>10</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H286" s="4">
         <v>44</v>
@@ -16641,7 +16641,7 @@
     </row>
     <row r="287" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>28</v>
@@ -16654,7 +16654,7 @@
         <v>10</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H287" s="4">
         <v>44</v>
@@ -16674,7 +16674,7 @@
     </row>
     <row r="288" spans="1:11" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>28</v>
@@ -16687,7 +16687,7 @@
         <v>10</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H288" s="4">
         <v>44</v>
@@ -16707,7 +16707,7 @@
     </row>
     <row r="289" spans="1:12" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>28</v>
@@ -16720,7 +16720,7 @@
         <v>11</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H289" s="4">
         <v>44</v>
@@ -16740,7 +16740,7 @@
     </row>
     <row r="290" spans="1:12" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>28</v>
@@ -16753,7 +16753,7 @@
         <v>12</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H290" s="4">
         <v>44</v>
@@ -16773,7 +16773,7 @@
     </row>
     <row r="291" spans="1:12" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A291" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B291" s="35" t="s">
         <v>29</v>
@@ -16800,7 +16800,7 @@
     </row>
     <row r="292" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>29</v>
@@ -16828,7 +16828,7 @@
     </row>
     <row r="293" spans="1:12" ht="44.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>29</v>
@@ -16839,7 +16839,7 @@
         <v>10</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H293" s="4">
         <v>45</v>
@@ -16859,7 +16859,7 @@
     </row>
     <row r="294" spans="1:12" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>29</v>
@@ -16870,7 +16870,7 @@
         <v>10</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H294" s="4">
         <v>45</v>
@@ -16890,7 +16890,7 @@
     </row>
     <row r="295" spans="1:12" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>29</v>
@@ -16901,7 +16901,7 @@
         <v>11</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H295" s="4">
         <v>45</v>
@@ -16921,7 +16921,7 @@
     </row>
     <row r="296" spans="1:12" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>29</v>
@@ -16932,7 +16932,7 @@
         <v>12</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H296" s="4">
         <v>45</v>
@@ -16991,7 +16991,7 @@
       </c>
       <c r="D298" s="8"/>
       <c r="E298" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H298" s="4">
         <v>46</v>
@@ -17024,7 +17024,7 @@
         <v>10</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H299" s="4">
         <v>46</v>
@@ -17090,7 +17090,7 @@
         <v>11</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H301" s="4">
         <v>46</v>
@@ -17153,7 +17153,7 @@
       </c>
       <c r="D303" s="8"/>
       <c r="E303" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H303" s="4">
         <v>73</v>
@@ -17171,7 +17171,7 @@
         <v>Scenario 0073 'Add to assembly order line for text with extended text disabled' {</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="304" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -17189,7 +17189,7 @@
         <v>10</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H304" s="4">
         <v>73</v>
@@ -17255,7 +17255,7 @@
         <v>11</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H306" s="4">
         <v>73</v>
@@ -17347,7 +17347,7 @@
         <v>10</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H309" s="4">
         <v>48</v>
@@ -17378,7 +17378,7 @@
         <v>10</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H310" s="4">
         <v>48</v>
@@ -17409,7 +17409,7 @@
         <v>11</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H311" s="4">
         <v>48</v>
@@ -17499,7 +17499,7 @@
         <v>10</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H314" s="4">
         <v>49</v>
@@ -17530,7 +17530,7 @@
         <v>10</v>
       </c>
       <c r="G315" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H315" s="4">
         <v>49</v>
@@ -17561,7 +17561,7 @@
         <v>11</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H316" s="4">
         <v>49</v>
@@ -17620,7 +17620,7 @@
       <c r="C318" s="8"/>
       <c r="D318" s="8"/>
       <c r="E318" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H318" s="4">
         <v>50</v>
@@ -17651,7 +17651,7 @@
         <v>10</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H319" s="4">
         <v>50</v>
@@ -17682,7 +17682,7 @@
         <v>10</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H320" s="4">
         <v>50</v>
@@ -17713,7 +17713,7 @@
         <v>11</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H321" s="4">
         <v>50</v>
@@ -17744,7 +17744,7 @@
         <v>12</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H322" s="4">
         <v>50</v>
@@ -17807,7 +17807,7 @@
         <v>10</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H324" s="4">
         <v>51</v>
@@ -17840,7 +17840,7 @@
         <v>10</v>
       </c>
       <c r="G325" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H325" s="4">
         <v>51</v>
@@ -17873,7 +17873,7 @@
         <v>10</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H326" s="4">
         <v>51</v>
@@ -17906,7 +17906,7 @@
         <v>11</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H327" s="4">
         <v>51</v>
@@ -17939,7 +17939,7 @@
         <v>12</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H328" s="4">
         <v>51</v>
@@ -18025,7 +18025,7 @@
         <v>10</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H331" s="4">
         <v>52</v>
@@ -18056,7 +18056,7 @@
         <v>10</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H332" s="4">
         <v>52</v>
@@ -18087,7 +18087,7 @@
         <v>11</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H333" s="4">
         <v>52</v>
@@ -18118,7 +18118,7 @@
         <v>12</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H334" s="4">
         <v>52</v>
@@ -18177,7 +18177,7 @@
       </c>
       <c r="D336" s="8"/>
       <c r="E336" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H336" s="4">
         <v>53</v>
@@ -18210,7 +18210,7 @@
         <v>10</v>
       </c>
       <c r="G337" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H337" s="4">
         <v>53</v>
@@ -18243,7 +18243,7 @@
         <v>10</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H338" s="4">
         <v>53</v>
@@ -18276,7 +18276,7 @@
         <v>11</v>
       </c>
       <c r="G339" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H339" s="4">
         <v>53</v>
@@ -18309,7 +18309,7 @@
         <v>12</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H340" s="4">
         <v>53</v>
@@ -18339,7 +18339,7 @@
       </c>
       <c r="D341" s="8"/>
       <c r="E341" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H341" s="4">
         <v>74</v>
@@ -18357,7 +18357,7 @@
         <v>Scenario 0074 'Add to assembly quote line for text with extended text disabled' {</v>
       </c>
       <c r="L341" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="342" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -18375,7 +18375,7 @@
         <v>10</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H342" s="4">
         <v>74</v>
@@ -18408,7 +18408,7 @@
         <v>10</v>
       </c>
       <c r="G343" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H343" s="4">
         <v>74</v>
@@ -18441,7 +18441,7 @@
         <v>11</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H344" s="4">
         <v>74</v>
@@ -18474,7 +18474,7 @@
         <v>12</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H345" s="4">
         <v>74</v>
@@ -18533,7 +18533,7 @@
         <v>10</v>
       </c>
       <c r="G347" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H347" s="4">
         <v>55</v>
@@ -18564,7 +18564,7 @@
         <v>10</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H348" s="4">
         <v>55</v>
@@ -18595,7 +18595,7 @@
         <v>11</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H349" s="4">
         <v>55</v>
@@ -18626,7 +18626,7 @@
         <v>12</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H350" s="4">
         <v>55</v>
@@ -18685,7 +18685,7 @@
         <v>10</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H352" s="4">
         <v>56</v>
@@ -18716,7 +18716,7 @@
         <v>10</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H353" s="4">
         <v>56</v>
@@ -18747,7 +18747,7 @@
         <v>11</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H354" s="4">
         <v>56</v>
@@ -18778,7 +18778,7 @@
         <v>12</v>
       </c>
       <c r="G355" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H355" s="4">
         <v>56</v>
@@ -18806,7 +18806,7 @@
       <c r="C356" s="8"/>
       <c r="D356" s="8"/>
       <c r="E356" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H356" s="4">
         <v>57</v>
@@ -18837,7 +18837,7 @@
         <v>10</v>
       </c>
       <c r="G357" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H357" s="4">
         <v>57</v>
@@ -18868,7 +18868,7 @@
         <v>10</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H358" s="4">
         <v>57</v>
@@ -18899,7 +18899,7 @@
         <v>11</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H359" s="4">
         <v>57</v>
@@ -18930,7 +18930,7 @@
         <v>12</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H360" s="4">
         <v>57</v>
@@ -18993,7 +18993,7 @@
         <v>10</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H362" s="4">
         <v>58</v>
@@ -19026,7 +19026,7 @@
         <v>10</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H363" s="4">
         <v>58</v>
@@ -19059,7 +19059,7 @@
         <v>10</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H364" s="4">
         <v>58</v>
@@ -19092,7 +19092,7 @@
         <v>11</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H365" s="4">
         <v>58</v>
@@ -19125,7 +19125,7 @@
         <v>12</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H366" s="4">
         <v>58</v>
@@ -19211,7 +19211,7 @@
         <v>10</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H369" s="4">
         <v>59</v>
@@ -19242,7 +19242,7 @@
         <v>10</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H370" s="4">
         <v>59</v>
@@ -19273,7 +19273,7 @@
         <v>11</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H371" s="4">
         <v>59</v>
@@ -19304,7 +19304,7 @@
         <v>12</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H372" s="4">
         <v>59</v>
@@ -19324,7 +19324,7 @@
     </row>
     <row r="373" spans="1:12" ht="31.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B373" s="53" t="s">
         <v>37</v>
@@ -19353,7 +19353,7 @@
     </row>
     <row r="374" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>37</v>
@@ -19363,7 +19363,7 @@
       </c>
       <c r="D374" s="8"/>
       <c r="E374" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H374" s="4">
         <v>60</v>
@@ -19383,7 +19383,7 @@
     </row>
     <row r="375" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>37</v>
@@ -19396,7 +19396,7 @@
         <v>10</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H375" s="4">
         <v>60</v>
@@ -19416,7 +19416,7 @@
     </row>
     <row r="376" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>37</v>
@@ -19429,7 +19429,7 @@
         <v>10</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H376" s="4">
         <v>60</v>
@@ -19449,7 +19449,7 @@
     </row>
     <row r="377" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>37</v>
@@ -19462,7 +19462,7 @@
         <v>11</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H377" s="4">
         <v>60</v>
@@ -19482,7 +19482,7 @@
     </row>
     <row r="378" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>37</v>
@@ -19495,7 +19495,7 @@
         <v>12</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H378" s="4">
         <v>60</v>
@@ -19515,7 +19515,7 @@
     </row>
     <row r="379" spans="1:12" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>37</v>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="D379" s="8"/>
       <c r="E379" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H379" s="4">
         <v>75</v>
@@ -19543,12 +19543,12 @@
         <v>Scenario 0075 'Add to blanket assembly order line for text with extended text disabled' {</v>
       </c>
       <c r="L379" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="380" spans="1:12" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>37</v>
@@ -19561,7 +19561,7 @@
         <v>10</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H380" s="4">
         <v>75</v>
@@ -19581,7 +19581,7 @@
     </row>
     <row r="381" spans="1:12" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>37</v>
@@ -19594,7 +19594,7 @@
         <v>10</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H381" s="4">
         <v>75</v>
@@ -19614,7 +19614,7 @@
     </row>
     <row r="382" spans="1:12" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>37</v>
@@ -19627,7 +19627,7 @@
         <v>11</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H382" s="4">
         <v>75</v>
@@ -19647,7 +19647,7 @@
     </row>
     <row r="383" spans="1:12" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>37</v>
@@ -19660,7 +19660,7 @@
         <v>12</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H383" s="4">
         <v>75</v>
@@ -19680,7 +19680,7 @@
     </row>
     <row r="384" spans="1:12" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>37</v>
@@ -19688,7 +19688,7 @@
       <c r="C384" s="8"/>
       <c r="D384" s="8"/>
       <c r="E384" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H384" s="4">
         <v>62</v>
@@ -19708,7 +19708,7 @@
     </row>
     <row r="385" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>37</v>
@@ -19719,7 +19719,7 @@
         <v>10</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H385" s="4">
         <v>62</v>
@@ -19739,7 +19739,7 @@
     </row>
     <row r="386" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>37</v>
@@ -19750,7 +19750,7 @@
         <v>10</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H386" s="4">
         <v>62</v>
@@ -19770,7 +19770,7 @@
     </row>
     <row r="387" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>37</v>
@@ -19781,7 +19781,7 @@
         <v>11</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H387" s="4">
         <v>62</v>
@@ -19801,7 +19801,7 @@
     </row>
     <row r="388" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>37</v>
@@ -19812,7 +19812,7 @@
         <v>12</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H388" s="4">
         <v>62</v>
@@ -19832,7 +19832,7 @@
     </row>
     <row r="389" spans="1:11" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>37</v>
@@ -19840,7 +19840,7 @@
       <c r="C389" s="8"/>
       <c r="D389" s="8"/>
       <c r="E389" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H389" s="4">
         <v>63</v>
@@ -19860,7 +19860,7 @@
     </row>
     <row r="390" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>37</v>
@@ -19871,7 +19871,7 @@
         <v>10</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H390" s="4">
         <v>63</v>
@@ -19891,7 +19891,7 @@
     </row>
     <row r="391" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>37</v>
@@ -19902,7 +19902,7 @@
         <v>10</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H391" s="4">
         <v>63</v>
@@ -19922,7 +19922,7 @@
     </row>
     <row r="392" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>37</v>
@@ -19933,7 +19933,7 @@
         <v>11</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H392" s="4">
         <v>63</v>
@@ -19953,7 +19953,7 @@
     </row>
     <row r="393" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>37</v>
@@ -19964,7 +19964,7 @@
         <v>12</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H393" s="4">
         <v>63</v>
@@ -19984,7 +19984,7 @@
     </row>
     <row r="394" spans="1:11" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>37</v>
@@ -19992,7 +19992,7 @@
       <c r="C394" s="8"/>
       <c r="D394" s="8"/>
       <c r="E394" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H394" s="4">
         <v>64</v>
@@ -20012,7 +20012,7 @@
     </row>
     <row r="395" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>37</v>
@@ -20023,7 +20023,7 @@
         <v>10</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H395" s="4">
         <v>64</v>
@@ -20043,7 +20043,7 @@
     </row>
     <row r="396" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>37</v>
@@ -20054,7 +20054,7 @@
         <v>10</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H396" s="4">
         <v>64</v>
@@ -20074,7 +20074,7 @@
     </row>
     <row r="397" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>37</v>
@@ -20085,7 +20085,7 @@
         <v>11</v>
       </c>
       <c r="G397" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H397" s="4">
         <v>64</v>
@@ -20105,7 +20105,7 @@
     </row>
     <row r="398" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>37</v>
@@ -20116,7 +20116,7 @@
         <v>12</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H398" s="4">
         <v>64</v>
@@ -20136,7 +20136,7 @@
     </row>
     <row r="399" spans="1:11" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>37</v>
@@ -20146,7 +20146,7 @@
       </c>
       <c r="D399" s="8"/>
       <c r="E399" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H399" s="4">
         <v>65</v>
@@ -20166,7 +20166,7 @@
     </row>
     <row r="400" spans="1:11" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>37</v>
@@ -20179,7 +20179,7 @@
         <v>10</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H400" s="4">
         <v>65</v>
@@ -20199,7 +20199,7 @@
     </row>
     <row r="401" spans="1:12" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>37</v>
@@ -20212,7 +20212,7 @@
         <v>10</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H401" s="4">
         <v>65</v>
@@ -20232,7 +20232,7 @@
     </row>
     <row r="402" spans="1:12" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>37</v>
@@ -20245,7 +20245,7 @@
         <v>10</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H402" s="4">
         <v>65</v>
@@ -20265,7 +20265,7 @@
     </row>
     <row r="403" spans="1:12" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>37</v>
@@ -20278,7 +20278,7 @@
         <v>11</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H403" s="4">
         <v>65</v>
@@ -20298,7 +20298,7 @@
     </row>
     <row r="404" spans="1:12" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>37</v>
@@ -20311,7 +20311,7 @@
         <v>12</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H404" s="4">
         <v>65</v>
@@ -20331,7 +20331,7 @@
     </row>
     <row r="405" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A405" s="53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B405" s="53" t="s">
         <v>38</v>
@@ -20358,7 +20358,7 @@
     </row>
     <row r="406" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>38</v>
@@ -20386,7 +20386,7 @@
     </row>
     <row r="407" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>38</v>
@@ -20397,7 +20397,7 @@
         <v>10</v>
       </c>
       <c r="G407" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H407" s="4">
         <v>66</v>
@@ -20417,7 +20417,7 @@
     </row>
     <row r="408" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>38</v>
@@ -20428,7 +20428,7 @@
         <v>10</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H408" s="4">
         <v>66</v>
@@ -20448,7 +20448,7 @@
     </row>
     <row r="409" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>38</v>
@@ -20459,7 +20459,7 @@
         <v>11</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H409" s="4">
         <v>66</v>
@@ -20479,7 +20479,7 @@
     </row>
     <row r="410" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>38</v>
@@ -20490,7 +20490,7 @@
         <v>12</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H410" s="4">
         <v>66</v>
@@ -20798,10 +20798,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -20830,7 +20830,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>23</v>
@@ -20838,7 +20838,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>78</v>
